--- a/ARTIQ_ALTIUM/Kasli/3U/PCB_3U_DDS/Project Outputs for PCB_3U_DDS/BOM/Bill of Materials-PCB_3U_DDS.xlsx
+++ b/ARTIQ_ALTIUM/Kasli/3U/PCB_3U_DDS/Project Outputs for PCB_3U_DDS/BOM/Bill of Materials-PCB_3U_DDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26805" windowHeight="11715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PCB_3U_DDS" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="435">
   <si>
     <t>Comment</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Non-polarised capacitor</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C22A, C22B, C22C, C22D, C40A, C40B, C40C, C40D, C82, C84</t>
+    <t>C1, C2A, C2B, C3A, C3B, C4A, C4B, C5A, C5B, C6A, C6B, C7A, C7B, C8A, C8B, C9A, C9B, C10A, C10B, C13, C22A, C22B, C22C, C22D, C27A, C27B, C27C, C27D, C40A, C40B, C40C, C40D, C46, C51A, C51B, C51C, C51D, C52A, C52B, C52C, C52D, C53A, C53B, C53C, C53D, C54, C56, C57, C58, C59, C60, C61, C62, C65, C66, C67, C68, C71, C72, C81, C83A, C83B, C83C, C83D, C88, C89, C90, C92, C93, C94, C95, C96, C98, C100, C102, C103, C105A, C105B, C105C, C105D, C106A, C106B, C106C, C106D, C108A, C108B, C108C, C108D, C109A, C109B, C109C, C109D, C110A, C110B, C110C, C110D, C117A, C117B, C117C, C117D, C118A, C118B, C118C, C118D, C119A, C119B, C119C, C119D, C129A, C129B, C129C, C129D, C130A, C130B, C130C, C130D, C133A, C133B, C133C, C133D, C134A, C134B, C134C, C134D, C138A, C138B, C138C, C138D, C140A, C140B, C140C, C140D, C141A, C141B, C141C, C141D, C142A, C142B, C142C, C142D, C148A, C148B, C148C, C148D, C153A, C153B, C153C, C153D, C154A, C154B, C154C, C154D, C157A, C157B, C157C, C157D, C158A, C158B, C158C, C158D, C159A, C159B, C159C, C159D, C173, C177, C178, C181, C184, C185, C186, C187, C188, C189, C190, C192, C193, C194, C196, C199, C200, C201</t>
   </si>
   <si>
     <t>CAPC1005X55N</t>
@@ -72,7 +72,7 @@
     <t>GENERIC</t>
   </si>
   <si>
-    <t>CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R</t>
+    <t>CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X7R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R, CC0402_100NF_16V_10%_X5R</t>
   </si>
   <si>
     <t>0.55mm</t>
@@ -81,7 +81,7 @@
     <t>MURATA</t>
   </si>
   <si>
-    <t>GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R71C104KA88D, GRM155R71C104KA88D, GRM155R71C104KA88D, GRM155R71C104KA88D, GRM155R71C104KA88D, GRM155R71C104KA88D, GRM155R71C104KA88D, GRM155R71C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D</t>
+    <t>GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R71C104KA88D, GRM155R71C104KA88D, GRM155R71C104KA88D, GRM155R71C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D, GRM155R61C104KA88D</t>
   </si>
   <si>
     <t>SMD Multilayer Chip Ceramic Capacitor</t>
@@ -90,7 +90,7 @@
     <t>10nF</t>
   </si>
   <si>
-    <t>C11, C14A, C14B, C14C, C14D, C15A, C15B, C15C, C15D, C16A, C16B, C16C, C16D, C17A, C17B, C17C, C17D, C18A, C18B, C18C, C18D, C19A, C19B, C19C, C19D, C20A, C20B, C20C, C20D, C25, C28A, C28B, C28C, C28D, C29A, C29B, C29C, C29D, C31, C32, C33, C34, C35, C36A, C36B, C36C, C36D, C37A, C37B, C37C, C37D, C41, C46A, C46B, C46C, C46D, C47A, C47B, C47C, C47D, C49A, C49B, C49C, C49D, C50A, C50B, C50C, C50D</t>
+    <t>C11, C14A, C14B, C14C, C14D, C15A, C15B, C15C, C15D, C16A, C16B, C16C, C16D, C17A, C17B, C17C, C17D, C18A, C18B, C18C, C18D, C19A, C19B, C19C, C19D, C20A, C20B, C20C, C20D, C25, C28A, C28B, C28C, C28D, C29A, C29B, C29C, C29D, C31, C32, C33, C34, C35, C36A, C36B, C36C, C36D, C37, C41, C42, C47A, C47B, C47C, C47D, C49A, C49B, C49C, C49D, C50A, C50B, C50C, C50D, C55A, C55B, C55C, C55D, C82A, C82B, C82C, C82D, C111A, C111B, C111C, C111D, C120A, C120B, C120C, C120D, C126A, C126B, C126C, C126D, C128A, C128B, C128C, C128D, C136A, C136B, C136C, C136D, C144A, C144B, C144C, C144D, C147A, C147B, C147C, C147D, C150A, C150B, C150C, C150D, C170, C175</t>
   </si>
   <si>
     <t>CC0402_10NF_16V_10%_X7R</t>
@@ -123,235 +123,199 @@
     <t>GMK212B7105MG-T</t>
   </si>
   <si>
-    <t>C13A, C13B, C13C, C13D, C26, C27</t>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C21A, C21B, C21C, C21D, C39A, C39B, C39C, C39D</t>
+  </si>
+  <si>
+    <t>CAPC1608X80N</t>
+  </si>
+  <si>
+    <t>CC0603_10UF_16V_20%_X5R</t>
+  </si>
+  <si>
+    <t>0.8mm</t>
+  </si>
+  <si>
+    <t>GRM188R61C106MA73D</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C23A, C23B, C23C, C23D</t>
+  </si>
+  <si>
+    <t>CC0402_1NF_50V_10%_X7R</t>
+  </si>
+  <si>
+    <t>223858715623</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C24A, C24B, C24C, C24D, C26A, C26B, C26C, C26D, C38A, C38B, C38C, C38D, C87A, C87B, C87C, C87D, C97</t>
+  </si>
+  <si>
+    <t>CC0402_100PF_50V_5%_C0G</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0402C101J5GACTU</t>
+  </si>
+  <si>
+    <t>C43A, C43B, C43C, C43D, C63, C77, C85A, C85B, C85C, C85D, C86, C91, C101, C104, C116A, C116B, C116C, C116D, C124A, C124B, C124C, C124D, C125A, C125B, C125C, C125D, C127A, C127B, C127C, C127D, C135A, C135B, C135C, C135D, C137A, C137B, C137C, C137D, C143A, C143B, C143C, C143D, C146A, C146B, C146C, C146D, C149A, C149B, C149C, C149D, C151A, C151B, C151C, C151D, C160, C165, C167, C168, C171, C174, C197, C198</t>
+  </si>
+  <si>
+    <t>CC0402_1UF_16V_10%_X5R</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C1005X5R1C105KT</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C64, C70, C179, C182, C183</t>
+  </si>
+  <si>
+    <t>CAPC2012X135N</t>
+  </si>
+  <si>
+    <t>CC0805_22UF_16V_10%_X5R</t>
+  </si>
+  <si>
+    <t>C2012X5R1C226KT</t>
+  </si>
+  <si>
+    <t>0.5pF</t>
+  </si>
+  <si>
+    <t>C69, C80, C191, C195</t>
+  </si>
+  <si>
+    <t>CAPC1005X50N</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>04023J0R5ABSTR</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thin-Film Chip Capacitors for RF Signal and Power Applications, Accu-P Series</t>
+  </si>
+  <si>
+    <t>CC0402_0.5PF_25V_0.05PF_AVX_04023J0R5ABSTR</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>C73, C75, C78, C161, C163, C166, C169</t>
+  </si>
+  <si>
+    <t>CAPC3225X270N</t>
+  </si>
+  <si>
+    <t>CC1210_47UF_10V_20%_X5R</t>
+  </si>
+  <si>
+    <t>2.7mm</t>
+  </si>
+  <si>
+    <t>LMK325BJ476MM-T</t>
+  </si>
+  <si>
+    <t>Polarised capacitor</t>
+  </si>
+  <si>
+    <t>C74, C76, C79, C155, C156</t>
+  </si>
+  <si>
+    <t>CAPMP3528X210N</t>
+  </si>
+  <si>
+    <t>CTE3528-21_22UF_10V_10%_LESR0700</t>
+  </si>
+  <si>
+    <t>2.1mm</t>
+  </si>
+  <si>
+    <t>TPSB226K010R0700</t>
+  </si>
+  <si>
+    <t>Low ESR 0R7 Solid Tantalum Chip Capacitor</t>
+  </si>
+  <si>
+    <t>C84A, C84B, C84C, C84D, C114A, C114B, C114C, C114D, C115A, C115B, C115C, C115D, C162A, C162B, C162C, C162D</t>
+  </si>
+  <si>
+    <t>CAPMP6032X280N</t>
+  </si>
+  <si>
+    <t>CTE6032-28_10UF_25V_10%_LESR0500</t>
+  </si>
+  <si>
+    <t>2.8mm</t>
+  </si>
+  <si>
+    <t>TPSC106K025R0500</t>
+  </si>
+  <si>
+    <t>Low ESR 0R5 Solid Tantalum Chip Capacitor</t>
+  </si>
+  <si>
+    <t>56pF</t>
+  </si>
+  <si>
+    <t>C107A, C107B, C107C, C107D</t>
   </si>
   <si>
     <t>CAPC1608X87N</t>
   </si>
   <si>
-    <t>CC0603_100NF_50V_10%_X7R</t>
+    <t>CC0603_56PF_50V_5%_NP0</t>
   </si>
   <si>
     <t>0.87mm</t>
   </si>
   <si>
-    <t>223858615649</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C21A, C21B, C21C, C21D, C39A, C39B, C39C, C39D</t>
-  </si>
-  <si>
-    <t>CAPC1608X80N</t>
-  </si>
-  <si>
-    <t>CC0603_10UF_16V_20%_X5R</t>
-  </si>
-  <si>
-    <t>0.8mm</t>
-  </si>
-  <si>
-    <t>GRM188R61C106MA73D</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>C23A, C23B, C23C, C23D</t>
-  </si>
-  <si>
-    <t>CC0402_1NF_50V_10%_X7R</t>
-  </si>
-  <si>
-    <t>223858715623</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C24A, C24B, C24C, C24D, C30A, C30B, C30C, C30D, C38A, C38B, C38C, C38D, C45A, C45B, C45C, C45D</t>
-  </si>
-  <si>
-    <t>CC0402_100PF_50V_5%_C0G</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>C0402C101J5GACTU</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>CC0603_10uF_6.3V_20%_X5R</t>
-  </si>
-  <si>
-    <t>0.95mm</t>
-  </si>
-  <si>
-    <t>C0603C106M9PAC</t>
-  </si>
-  <si>
-    <t>CC0603_10UF_6.3V_20%_X5R</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>C43, C51</t>
-  </si>
-  <si>
-    <t>CAPC1709X95N</t>
-  </si>
-  <si>
-    <t>CC0603_4.7UF_16V_10%_X5R</t>
-  </si>
-  <si>
-    <t>EMK107ABJ475KA-T</t>
-  </si>
-  <si>
-    <t>0.5pF</t>
-  </si>
-  <si>
-    <t>CAP 0.5pF 10V ±0.1pF 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
-    <t>C44A, C44B, C44C, C44D, C48A, C48B, C48C, C48D</t>
-  </si>
-  <si>
-    <t>CAPC0402(1005)60_M</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>C52, C53</t>
-  </si>
-  <si>
-    <t>CAPC1608X90N</t>
-  </si>
-  <si>
-    <t>CC0603_2.2UF_10V_20%_X7R</t>
-  </si>
-  <si>
-    <t>0.9mm</t>
-  </si>
-  <si>
-    <t>LMK107B7225MA-T</t>
-  </si>
-  <si>
-    <t>C54, C81, C87, C88, C89, C90, C92, C93, C94, C95</t>
-  </si>
-  <si>
-    <t>CAPC0603X33N</t>
-  </si>
-  <si>
-    <t>CC0201_100NF_6.3V_10%_X5R</t>
-  </si>
-  <si>
-    <t>0.33mm</t>
-  </si>
-  <si>
-    <t>AVX</t>
-  </si>
-  <si>
-    <t>02016D104KAT2A</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C63, C64, C65, C71, C72, C73, C74, C75, C76, C83, C85</t>
-  </si>
-  <si>
-    <t>CAPC2012X135N</t>
-  </si>
-  <si>
-    <t>CC0805_22UF_16V_10%_X5R</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>C2012X5R1C226KT</t>
-  </si>
-  <si>
-    <t>Polarised capacitor</t>
-  </si>
-  <si>
-    <t>C66, C68, C70, C77, C79</t>
-  </si>
-  <si>
-    <t>CAPMP3216X180N</t>
-  </si>
-  <si>
-    <t>TCJA106M016R0200</t>
-  </si>
-  <si>
-    <t>ESR 0R200 Tantalum Solid Electrolytic Chip Capacitor with Conductive Polymer Electrode</t>
-  </si>
-  <si>
-    <t>CTE3216-18_10UF_16V_20%_AVX_TCJ</t>
-  </si>
-  <si>
-    <t>C67, C78</t>
-  </si>
-  <si>
-    <t>CC0603_1UF_25V_10%_X7R</t>
-  </si>
-  <si>
-    <t>GRM188R71E105KA12D</t>
-  </si>
-  <si>
-    <t>C69, C80</t>
-  </si>
-  <si>
-    <t>CAPC1005X50N</t>
-  </si>
-  <si>
-    <t>04023J0R5ABSTR</t>
-  </si>
-  <si>
-    <t>Thin-Film Chip Capacitors for RF Signal and Power Applications, Accu-P Series</t>
-  </si>
-  <si>
-    <t>CC0402_0.5PF_25V_0.05PF_AVX_04023J0R5ABSTR</t>
-  </si>
-  <si>
-    <t>C86, C91</t>
-  </si>
-  <si>
-    <t>CC0402_1UF_16V_10%_X5R</t>
-  </si>
-  <si>
-    <t>C1005X5R1C105KT</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>C96</t>
-  </si>
-  <si>
-    <t>CC0402_470NF_16V_10%_X5R</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>C97</t>
-  </si>
-  <si>
-    <t>CC0402_22PF_50V_5%_C0G</t>
-  </si>
-  <si>
-    <t>C0402C220J5GACTU</t>
+    <t>223886715569</t>
+  </si>
+  <si>
+    <t>820pF</t>
+  </si>
+  <si>
+    <t>C113A, C113B, C113C, C113D</t>
+  </si>
+  <si>
+    <t>CC0603_820PF_50V_10%_X7R</t>
+  </si>
+  <si>
+    <t>223858615622</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>C164A, C164B, C164C, C164D, C172A, C172B, C172C, C172D, C176A, C176B, C176C, C176D, C180A, C180B, C180C, C180D, C202A, C202B, C202C, C202D, C203A, C203B, C203C, C203D, C204A, C204B, C204C, C204D, C205A, C205B, C205C, C205D, C206A, C206B, C206C, C206D, C207A, C207B, C207C, C207D</t>
+  </si>
+  <si>
+    <t>CC0402_NO-VALUE</t>
+  </si>
+  <si>
+    <t>Reserved Footprint For 0402(1005) Chip Ceramic Capacitor</t>
   </si>
   <si>
     <t>S1411-46R</t>
@@ -360,7 +324,7 @@
     <t>Surface Mount Clip for PCB Screening Covers</t>
   </si>
   <si>
-    <t>CLIP1, CLIP2, CLIP3, CLIP4, CLIP5, CLIP6, CLIP7, CLIP8, CLIP9, CLIP10, CLIP11, CLIP12, CLIP13, CLIP14, CLIP15, CLIP16, CLIP17, CLIP18, CLIP19, CLIP20, CLIP21, CLIP22, CLIP23, CLIP24, CLIP25, CLIP26</t>
+    <t>CLIP1, CLIP2, CLIP3, CLIP4, CLIP5, CLIP6, CLIP7, CLIP8, CLIP9, CLIP10, CLIP11, CLIP12, CLIP13, CLIP14, CLIP15, CLIP16, CLIP17, CLIP18, CLIP19, CLIP20, CLIP21, CLIP22, CLIP23, CLIP24, CLIP25, CLIP26, CLIP27, CLIP28, CLIP29</t>
   </si>
   <si>
     <t>CLIP_HOLLAND-SHIELDING_LC</t>
@@ -372,13 +336,13 @@
     <t>Surface Mount Clip for PCB Screening Covers, 1500 Serie</t>
   </si>
   <si>
-    <t>DC to 3000MHz</t>
-  </si>
-  <si>
-    <t>50 Ohm DC to 3000MHz Low Pass Filter</t>
-  </si>
-  <si>
-    <t>FL2A, FL2B, FL2C, FL2D, FL3A, FL3B, FL3C, FL3D, FL4A, FL4B, FL4C, FL4D</t>
+    <t>DC to 320MHz</t>
+  </si>
+  <si>
+    <t>50 Ohm DC to 320MHz Low Pass Filter</t>
+  </si>
+  <si>
+    <t>FL2A, FL2B, FL2C, FL2D</t>
   </si>
   <si>
     <t>FIL_MINI-CIRCUITS_FV1206</t>
@@ -387,13 +351,13 @@
     <t>MINI-CIRCUITS</t>
   </si>
   <si>
-    <t>LFCN-3000+</t>
+    <t>LFCN-320</t>
   </si>
   <si>
     <t>50 Ohm Low Pass Filter</t>
   </si>
   <si>
-    <t>FIL_MINI-CIRCUITS_LFCN-3000+</t>
+    <t>FIL_MINI-CIRCUITS_LFCN-320</t>
   </si>
   <si>
     <t>Use only in PCB</t>
@@ -444,7 +408,7 @@
     <t>4-Channel Half-Duplex M-LVDS Line Transceiver</t>
   </si>
   <si>
-    <t>IC1, IC6</t>
+    <t>IC1A, IC1B, IC6A, IC6B</t>
   </si>
   <si>
     <t>QFN50P700X700X100-49N-S420</t>
@@ -453,16 +417,19 @@
     <t>TEXAS INSTRUMENTS</t>
   </si>
   <si>
-    <t>PCF8574ADW</t>
-  </si>
-  <si>
-    <t>Remote 8-bit I/O Expander For I2C Bus</t>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>SOIC127P1030X265-16N</t>
+    <t>AD9910BSVZ</t>
+  </si>
+  <si>
+    <t>1 GSPS, 14-Bit, 3.3 V CMOS Direct Digital Synthesizer</t>
+  </si>
+  <si>
+    <t>IC2A, IC2B, IC2C, IC2D</t>
+  </si>
+  <si>
+    <t>QFP50P1600X1600X120-101N-S500</t>
+  </si>
+  <si>
+    <t>ANALOG DEVICES</t>
   </si>
   <si>
     <t>HMC542BLP4E</t>
@@ -483,10 +450,25 @@
     <t>0.5dB LSB GaAs MMIC 6-bit Digital Serial Control Attenuator, DC to 4GHz</t>
   </si>
   <si>
-    <t>ERA-4XSM+</t>
-  </si>
-  <si>
-    <t>DC-4GHz Monolithic Amplifier</t>
+    <t>FIN1101K8X</t>
+  </si>
+  <si>
+    <t>LVDS Single Port High Speed Repeater</t>
+  </si>
+  <si>
+    <t>IC4, IC16</t>
+  </si>
+  <si>
+    <t>SOP50P310X90-8N</t>
+  </si>
+  <si>
+    <t>FAIRCHILD SEMICONDUCTOR</t>
+  </si>
+  <si>
+    <t>ERA-3+</t>
+  </si>
+  <si>
+    <t>DC-3GHz Monolithic Amplifier</t>
   </si>
   <si>
     <t>IC5A, IC5B, IC5C, IC5D</t>
@@ -495,16 +477,19 @@
     <t>MINI-CIRCUITS_WW107</t>
   </si>
   <si>
-    <t>HMC349LP4C</t>
-  </si>
-  <si>
-    <t>Hittite RF Switch, SPDT, Non-Reflective</t>
-  </si>
-  <si>
-    <t>IC7A, IC7B, IC7C, IC7D</t>
-  </si>
-  <si>
-    <t>QFN65P400X400X100-16N</t>
+    <t>TPS74901RGWT</t>
+  </si>
+  <si>
+    <t>3A, 0.8 to 3.6V Adjustable Low-Dropout Linear Regulator with Programmable Soft-Start</t>
+  </si>
+  <si>
+    <t>IC7, IC11, IC18</t>
+  </si>
+  <si>
+    <t>QFN65P500X500X100-21N-S325</t>
+  </si>
+  <si>
+    <t>0.8V to 3.6V, 3.0A Low Dropout Linear Regulator with Programmable Soft-Start</t>
   </si>
   <si>
     <t>24AA02E48T-I/OT</t>
@@ -513,7 +498,7 @@
     <t>1.7V-5.5V, 2K I2C Serial EEPROM With EUI-48 Node Identity</t>
   </si>
   <si>
-    <t>IC8</t>
+    <t>IC8A, IC8B</t>
   </si>
   <si>
     <t>SOT95P280X145-5N</t>
@@ -522,115 +507,142 @@
     <t>MICROCHIP TECHNOLOGY</t>
   </si>
   <si>
-    <t>SN74LV595APWT</t>
-  </si>
-  <si>
-    <t>8-Bit Shift Register With 3-State Output Register</t>
-  </si>
-  <si>
-    <t>IC9, IC10</t>
-  </si>
-  <si>
-    <t>SOP65P640X120-16N</t>
-  </si>
-  <si>
-    <t>LT3045EDD#PBF</t>
-  </si>
-  <si>
-    <t>20V, 500mA, Ultralow Noise, Ultrahigh PSRR Linear Regulator</t>
-  </si>
-  <si>
-    <t>IC11</t>
-  </si>
-  <si>
-    <t>SON50P300X300X80-11N-R175X248</t>
+    <t>Si53304-B-GM</t>
+  </si>
+  <si>
+    <t>1:6 Low Jitter Universal Buffer / Level Translator with 2:1 Input Mux and Individual OE, 1 to 725 MHz, -40 to 85 degC, 32-pin QFN</t>
+  </si>
+  <si>
+    <t>IC9</t>
+  </si>
+  <si>
+    <t>SLAB-QFN-32-2150x2150TP_M</t>
+  </si>
+  <si>
+    <t>Silicon Labs</t>
+  </si>
+  <si>
+    <t>XC2C128-6TQG144C</t>
+  </si>
+  <si>
+    <t>CoolRunner-II 1.8V, 128 Macrocell CPLD, 100 User I/Os, 144-Pin TQFP, Commercial Grade, Pb-Free</t>
+  </si>
+  <si>
+    <t>IC10</t>
+  </si>
+  <si>
+    <t>QFP50P2200X2200X160-144N</t>
+  </si>
+  <si>
+    <t>XILINX</t>
+  </si>
+  <si>
+    <t>LM75AIM/NOPB</t>
+  </si>
+  <si>
+    <t>Digital Temperature Sensor and Thermal Watchdog with Two-Wire Interface</t>
+  </si>
+  <si>
+    <t>IC12</t>
+  </si>
+  <si>
+    <t>SOIC127P600X175-8N</t>
+  </si>
+  <si>
+    <t>-25° to +100°C ±2°C Digital Temperature Sensor and Thermal Watchdog with Two-Wire Interface</t>
+  </si>
+  <si>
+    <t>AD9912ABCPZ</t>
+  </si>
+  <si>
+    <t>1 GSPS Direct Digital Synthetizer with 14-Bit DAC</t>
+  </si>
+  <si>
+    <t>IC13A, IC13B, IC13C, IC13D</t>
+  </si>
+  <si>
+    <t>QFN50P900X900X100-65N-S536</t>
+  </si>
+  <si>
+    <t>LP3990MF-1.8/NOPB</t>
+  </si>
+  <si>
+    <t>1.8V, 150mA Linear Voltage Regulator For Digital Applications</t>
+  </si>
+  <si>
+    <t>IC14</t>
+  </si>
+  <si>
+    <t>SOT95P284X122-5N</t>
+  </si>
+  <si>
+    <t>LTM4622AEV#PBF</t>
+  </si>
+  <si>
+    <t>Dual Ultrathin 2A or Single 4A, 3.6V to 20V, 1.5V to 12V   Step-Down DC/DC μModule Regulator</t>
+  </si>
+  <si>
+    <t>IC15</t>
+  </si>
+  <si>
+    <t>LGA25C127P5X5_625X625X190</t>
   </si>
   <si>
     <t>LINEAR TECHNOLOGY</t>
   </si>
   <si>
-    <t>ADP7182AUJZ-5.0-R7</t>
-  </si>
-  <si>
-    <t>–5V, 200 mA, Low Noise, Linear Regulator</t>
-  </si>
-  <si>
-    <t>IC12</t>
-  </si>
-  <si>
-    <t>SOT95P280X90-5N</t>
-  </si>
-  <si>
-    <t>ANALOG DEVICES</t>
-  </si>
-  <si>
-    <t>–5V, -200mA, Low Noise, Linear Regulator</t>
-  </si>
-  <si>
-    <t>AD9912ABCPZ</t>
-  </si>
-  <si>
-    <t>1 GSPS Direct Digital Synthetizer with 14-Bit DAC</t>
-  </si>
-  <si>
-    <t>IC13A, IC13B, IC13C, IC13D</t>
-  </si>
-  <si>
-    <t>QFN50P900X900X100-65N-S536</t>
-  </si>
-  <si>
-    <t>SN74LVC138AD</t>
-  </si>
-  <si>
-    <t>3-Line to 8-Line Decoder/Demultiplexer</t>
-  </si>
-  <si>
-    <t>IC14</t>
-  </si>
-  <si>
-    <t>SOIC127P600X175-16N</t>
-  </si>
-  <si>
-    <t>3-Line to 8-Line Decoder/Demultiplexer, Inverting</t>
-  </si>
-  <si>
-    <t>LTM4619EV#PBF</t>
-  </si>
-  <si>
-    <t>4.5V-26.5V To 0.8V-5V, Iout 4A Dual DC/DC uModule Regulator</t>
-  </si>
-  <si>
-    <t>IC15</t>
-  </si>
-  <si>
-    <t>LGA144S127P12X12_1500X1500X292R</t>
-  </si>
-  <si>
-    <t>4.5V-26.5V To 0.8V-5V, Iout 4A Dual DC-DC uModule Regulator</t>
-  </si>
-  <si>
-    <t>LTC6957IDD-1#PBF</t>
-  </si>
-  <si>
-    <t>Low Phase Noise, Dual Output Buffer/Driver/Logic Converter, LVPECL Logic Outputs</t>
-  </si>
-  <si>
-    <t>IC16</t>
-  </si>
-  <si>
-    <t>SON45P300X300X80-13N-R175X248</t>
-  </si>
-  <si>
-    <t>ADCLK948BCPZ</t>
-  </si>
-  <si>
-    <t>Two Selectable Inputs, 8 LVPECL Outputs, SiGe Clock Fanout Buffer</t>
-  </si>
-  <si>
-    <t>IC17</t>
-  </si>
-  <si>
-    <t>QFN50P500X500X80-33N-S285</t>
+    <t>PAT1220-C-9DB-T5</t>
+  </si>
+  <si>
+    <t>DC to 10GHz, 100mw, 50 Ohm, 9dB, Precision chip attenuator</t>
+  </si>
+  <si>
+    <t>IC17A, IC17B, IC17C, IC17D</t>
+  </si>
+  <si>
+    <t>SUSUMU_PAT1220</t>
+  </si>
+  <si>
+    <t>SUSUMU</t>
+  </si>
+  <si>
+    <t>DC to 10GHz, 100mw, 50 Ohm, 9dB, Precision Chip 3dB Attenuator</t>
+  </si>
+  <si>
+    <t>Si53312-B-GM</t>
+  </si>
+  <si>
+    <t>1:10 Low Jitter Universal Buffer / Level Translator with 2:1 Input Mux, 1 to 1250 MHz, -40 to 85 degC, 44-pin QFN</t>
+  </si>
+  <si>
+    <t>IC19</t>
+  </si>
+  <si>
+    <t>SLAB-QFN-44-2800x2800TP_N</t>
+  </si>
+  <si>
+    <t>LT1761ES5-BYP#TRMPBF</t>
+  </si>
+  <si>
+    <t>100mA, Low Noise, LDO Micropower Adjustable Regulator in SOT-23</t>
+  </si>
+  <si>
+    <t>IC20</t>
+  </si>
+  <si>
+    <t>SOT95P280X100-5N</t>
+  </si>
+  <si>
+    <t>1.22V to 20V, 100mA, Low Noise, LDO Adjustable Micropower Regulator</t>
+  </si>
+  <si>
+    <t>LT1763CS8#PBF</t>
+  </si>
+  <si>
+    <t>1.22V to 20V 500mA, Low Noise, LDO Adjustable Micropower Regulator</t>
+  </si>
+  <si>
+    <t>IC21</t>
   </si>
   <si>
     <t>TPS62175DQC</t>
@@ -639,19 +651,31 @@
     <t>4.75-28VDC to 1-6VDC, 500mA Step-Down Converter With Sleep Mode</t>
   </si>
   <si>
-    <t>IC18</t>
+    <t>IC22</t>
   </si>
   <si>
     <t>SON50P200X300X80-11N-R94X250</t>
   </si>
   <si>
+    <t>HMC349ALP4CE</t>
+  </si>
+  <si>
+    <t>DC-4GHz High Isolation SPDT Non-Reflective Switch</t>
+  </si>
+  <si>
+    <t>IC23A, IC23B, IC23C, IC23D</t>
+  </si>
+  <si>
+    <t>QFN65P400X400X100-17N-S255</t>
+  </si>
+  <si>
     <t>Familly</t>
   </si>
   <si>
     <t>Connector 30 Male</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>J1A, J1B</t>
   </si>
   <si>
     <t>3M_N2530-6002RB</t>
@@ -669,37 +693,55 @@
     <t>SMA</t>
   </si>
   <si>
+    <t>50 Ohm, SMA Edge Mount PCB, With Jam Nut And Lock Washer</t>
+  </si>
+  <si>
     <t>J2, J3, J4, J5, J6</t>
   </si>
   <si>
-    <t>TELEGARTNER_J01151A0451</t>
-  </si>
-  <si>
-    <t>TELEGARTNER</t>
-  </si>
-  <si>
-    <t>J01151A0451</t>
-  </si>
-  <si>
-    <t>SMA 50 ohms Edge Mount Bulkhead Jack Receptacle</t>
-  </si>
-  <si>
-    <t>Coax_1Female_1Shield</t>
-  </si>
-  <si>
-    <t>J7, J8</t>
-  </si>
-  <si>
-    <t>HUBER-SUHNER_85_MMCX-50-0-1/111_OE</t>
-  </si>
-  <si>
-    <t>HUBER+SUHNER</t>
-  </si>
-  <si>
-    <t>85_MMCX-50-0-1/111_OE</t>
-  </si>
-  <si>
-    <t>MMCX 50 Ohms Right Angle PCB Jack</t>
+    <t>MOLEX_73251-2120</t>
+  </si>
+  <si>
+    <t>MOLEX</t>
+  </si>
+  <si>
+    <t>73251-2120</t>
+  </si>
+  <si>
+    <t>MMCX</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>SAMTEC_MMCX-J-P-H-ST-TH1</t>
+  </si>
+  <si>
+    <t>SAMTEC</t>
+  </si>
+  <si>
+    <t>MMCX-J-P-H-ST-TH1</t>
+  </si>
+  <si>
+    <t>Straight Through-hole 50 Ohm Micro Mini RF Jack, MMCX Series</t>
+  </si>
+  <si>
+    <t>Milli-Grid™</t>
+  </si>
+  <si>
+    <t>Connector 14 Male</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>MOLEX_87832-1420</t>
+  </si>
+  <si>
+    <t>87832-1420</t>
+  </si>
+  <si>
+    <t>2.00mm (.079") Pitch Milli-Grid™ Header, Surface Mount, Vertical, Shrouded, 14 Circuits,with Locking Windows and Centre Polarization Slot, PCB Locator</t>
   </si>
   <si>
     <t>0.5uH@200mA</t>
@@ -720,13 +762,31 @@
     <t>IND_MINI-CIRCUITS_TCCH-80+</t>
   </si>
   <si>
+    <t>1.5uH</t>
+  </si>
+  <si>
+    <t>Inductor With Core</t>
+  </si>
+  <si>
+    <t>L2, L3</t>
+  </si>
+  <si>
+    <t>IND_TDK_SPM6530</t>
+  </si>
+  <si>
+    <t>SPM6530T-1R5M100</t>
+  </si>
+  <si>
+    <t>SMD Inductor for Power Circuits (Wound Metal), SPM Series</t>
+  </si>
+  <si>
+    <t>IND_1.5UH_20%_TDK_SPM6530</t>
+  </si>
+  <si>
     <t>10uH</t>
   </si>
   <si>
-    <t>Inductor With Core</t>
-  </si>
-  <si>
-    <t>L2, L3, L4, L5, L9, L10</t>
+    <t>L4, L5</t>
   </si>
   <si>
     <t>IND_MURATA-PS_8400</t>
@@ -750,7 +810,7 @@
     <t>Inductor</t>
   </si>
   <si>
-    <t>L6A, L6B, L6C, L6D, L7A, L7B, L7C, L7D, L11, L12</t>
+    <t>L6A, L6B, L6C, L6D, L7A, L7B, L7C, L7D</t>
   </si>
   <si>
     <t>INDC1608X95N</t>
@@ -768,7 +828,7 @@
     <t>120R@100MHz</t>
   </si>
   <si>
-    <t>L13, L14</t>
+    <t>L9, L13, L14, L15A, L15B, L15C, L15D, L16A, L16B, L16C, L16D, L17A, L17B, L17C, L17D, L18A, L18B, L18C, L18D, L19A, L19B, L19C, L19D, L20A, L20B, L20C, L20D, L21A, L21B, L21C, L21D, L22A, L22B, L22C, L22D</t>
   </si>
   <si>
     <t>BLM18PG121SN1D</t>
@@ -780,94 +840,181 @@
     <t>IND0603_MURATA_BLM18PG121SN1D</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>LED Green 1C 2A</t>
+  </si>
+  <si>
+    <t>LD1, LD3</t>
+  </si>
+  <si>
+    <t>LED_OSRAM_LGL29K</t>
+  </si>
+  <si>
+    <t>OSRAM</t>
+  </si>
+  <si>
+    <t>LG L29K-G2J1-24-Z</t>
+  </si>
+  <si>
+    <t>Surface Mount Green LED (0603 Case)</t>
+  </si>
+  <si>
+    <t>LED_OSRAM_LG L29K-G2J1-24-Z</t>
+  </si>
+  <si>
+    <t>LED x2 Green 1C2A-BOT_3C4A-TOP</t>
+  </si>
+  <si>
+    <t>LD2, LD5, LD6, LD7, LD8</t>
+  </si>
+  <si>
+    <t>LED_DIALIGHT_553-0222F</t>
+  </si>
+  <si>
+    <t>DIALIGHT</t>
+  </si>
+  <si>
+    <t>553-0222F</t>
+  </si>
+  <si>
+    <t>Dual 3mm Green LED CBI® Circuit Board Indicator</t>
+  </si>
+  <si>
+    <t>100MHz</t>
+  </si>
+  <si>
+    <t>Oscillator 4 pins 1=VC 2=GND 3=OUT 4=VDD</t>
+  </si>
+  <si>
+    <t>OSC1</t>
+  </si>
+  <si>
+    <t>OSC_CRYSTEK_CVHD-950</t>
+  </si>
+  <si>
+    <t>CRYSTEK CRYSTAL</t>
+  </si>
+  <si>
+    <t>CVHD-950-100.000</t>
+  </si>
+  <si>
+    <t>3.3V, ±20ppm, 15pF, 0..70°C, CMOS Surface Mount Ultra-Low Noise Oscillator (CVHD-950 Series)</t>
+  </si>
+  <si>
+    <t>OSC_100MHZ_CRYSTEK_CVHD-950-100.000</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R1A, R1B, R3A, R3B, R3C, R3D, R4A, R4B, R4C, R4D, R14A, R14B, R89A, R89B, R89C, R89D, R94A, R94B, R94C, R94D, R104A, R104B, R104C, R104D, R105A, R105B, R105C, R105D, R106A, R106B, R106C, R106D, R107A, R107B, R107C, R107D</t>
+  </si>
+  <si>
+    <t>RESC1005X40N</t>
+  </si>
+  <si>
+    <t>R0402_NO-VALUE</t>
+  </si>
+  <si>
+    <t>Reserved Footprint For a 0402 (1005) Chip Resistor</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>R2A, R2B, R2C, R2D, R6, R45, R46, R48A, R48B, R48C, R48D, R49A, R49B, R49C, R49D, R50A, R50B, R50C, R50D, R51A, R51B, R51C, R51D, R56A, R56B, R56C, R56D, R57A, R57B, R57C, R57D, R58A, R58B, R58C, R58D, R59A, R59B, R59C, R59D, R64, R65, R73, R74, R75, R78A, R78B, R78C, R78D, R79A, R79B, R79C, R79D, R81, R88A, R88B, R88C, R88D, R91A, R91B, R91C, R91D, R92A, R92B, R92C, R92D, R93A, R93B, R93C, R93D, R96A, R96B, R96C, R96D, R97A, R97B, R97C, R97D, R98A, R98B, R98C, R98D, R99A, R99B, R99C, R99D, R100A, R100B, R100C, R100D, R123, R124, R125, R126, R127, R128, R138A, R138B, R138C, R138D</t>
+  </si>
+  <si>
+    <t>R0402_0R_JUMPER</t>
+  </si>
+  <si>
+    <t>0.4mm</t>
+  </si>
+  <si>
+    <t>YAGEO PHYCOMP</t>
+  </si>
+  <si>
+    <t>232270591001L</t>
+  </si>
+  <si>
+    <t>1A (0.05R Max DC Resistance) Zero Ohm Jumper</t>
+  </si>
+  <si>
+    <t>1k2</t>
+  </si>
+  <si>
+    <t>Resistor - 1%</t>
+  </si>
+  <si>
+    <t>R5, R80, R119, R130, R143</t>
+  </si>
+  <si>
+    <t>RESC1608X55N</t>
+  </si>
+  <si>
+    <t>R0603_1K2_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NIC COMPONENT</t>
+  </si>
+  <si>
+    <t>NRC06F1201TRF</t>
+  </si>
+  <si>
+    <t>General Purpose Thick Film Chip Resistor</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
-    <t>Resistor - 1%</t>
-  </si>
-  <si>
-    <t>R1, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R21, R22, R24, R34, R35</t>
-  </si>
-  <si>
-    <t>RESC1005X40N</t>
-  </si>
-  <si>
-    <t>R0402_100R_1%_0.1W_100PPM_50V</t>
-  </si>
-  <si>
-    <t>0.4mm</t>
-  </si>
-  <si>
-    <t>PANASONIC</t>
-  </si>
-  <si>
-    <t>ERJ2RKF1000X</t>
-  </si>
-  <si>
-    <t>General Purpose Thick Film Chip Resistor</t>
-  </si>
-  <si>
-    <t>R0402_100R_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R2A, R2B, R2C, R2D, R3A, R3B, R3C, R3D, R4A, R4B, R4C, R4D, R38A, R38B, R38C, R38D, R43A, R43B, R43C, R43D, R44A, R44B, R44C, R44D, R45A, R45B, R45C, R45D, R46A, R46B, R46C, R46D, R47A, R47B, R47C, R47D, R48A, R48B, R48C, R48D, R49A, R49B, R49C, R49D, R50A, R50B, R50C, R50D, R51A, R51B, R51C, R51D, R52A, R52B, R52C, R52D, R53A, R53B, R53C, R53D, R54A, R54B, R54C, R54D, R55A, R55B, R55C, R55D, R56A, R56B, R56C, R56D, R57A, R57B, R57C, R57D, R58A, R58B, R58C, R58D, R59A, R59B, R59C, R59D, R66, R67, R68, R69, R70, R71, R72, R73, R82, R84</t>
-  </si>
-  <si>
-    <t>R0402_0R_JUMPER</t>
-  </si>
-  <si>
-    <t>YAGEO PHYCOMP</t>
-  </si>
-  <si>
-    <t>232270591001L</t>
-  </si>
-  <si>
-    <t>1A (0.05R Max DC Resistance) Zero Ohm Jumper</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>R5A, R5B, R5C, R5D</t>
-  </si>
-  <si>
-    <t>R0402_110R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>232270671101L</t>
-  </si>
-  <si>
-    <t>R18A, R18B, R18C, R18D, R19A, R19B, R19C, R19D</t>
-  </si>
-  <si>
-    <t>RESC0603X28N</t>
-  </si>
-  <si>
-    <t>R0201_100R_1%_0.05W_200PPM</t>
-  </si>
-  <si>
-    <t>0.27mm</t>
-  </si>
-  <si>
-    <t>VISHAY</t>
-  </si>
-  <si>
-    <t>CRCW0201100RFNED</t>
-  </si>
-  <si>
-    <t>Thick Film Chip Resistor</t>
+    <t>R7A, R7B, R8A, R8B, R8C, R8D, R9A, R9B, R10A, R10B, R10C, R10D, R11A, R11B, R12A, R12B, R12C, R12D, R13A, R13B, R16A, R16B, R17, R18A, R18B, R18C, R18D, R19A, R19B, R19C, R19D, R21A, R21B, R22, R24A, R24B, R32, R35A, R35B, R68</t>
+  </si>
+  <si>
+    <t>R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.1W_100PPM_50V, R0402_100R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>PANASONIC, PANASONIC, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, PANASONIC, PANASONIC, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, PANASONIC, PANASONIC, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, PANASONIC, PANASONIC, PANASONIC, PANASONIC, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, YAGEO PHYCOMP, PANASONIC, PANASONIC, YAGEO PHYCOMP, PANASONIC, PANASONIC, YAGEO PHYCOMP, PANASONIC, PANASONIC, YAGEO PHYCOMP</t>
+  </si>
+  <si>
+    <t>ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L, 232270671001L, 232270671001L, 232270671001L, ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L, 232270671001L, 232270671001L, 232270671001L, ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L, 232270671001L, 232270671001L, 232270671001L, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, 232270671001L, ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L, ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L, ERJ2RKF1000X, ERJ2RKF1000X, 232270671001L</t>
+  </si>
+  <si>
+    <t>R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.1W_100PPM, R0402_100R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>Resistor - 0.1%</t>
+  </si>
+  <si>
+    <t>R15A, R15B, R15C, R15D</t>
+  </si>
+  <si>
+    <t>RESC1005X35N</t>
+  </si>
+  <si>
+    <t>R0402_10K_0.1%_0.063W_25PPM</t>
+  </si>
+  <si>
+    <t>0.35mm</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>CPF0402B10KE1</t>
+  </si>
+  <si>
+    <t>Thin Film Precision Resistor</t>
   </si>
   <si>
     <t>4k7</t>
   </si>
   <si>
-    <t>R20A, R20B, R20C, R20D, R23A, R23B, R23C, R23D</t>
+    <t>R20A, R20B, R20C, R20D</t>
   </si>
   <si>
     <t>R0402_4K7_1%_0.0625W_100PPM</t>
@@ -876,10 +1023,79 @@
     <t>232270674702L</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R33</t>
+    <t>1k5</t>
+  </si>
+  <si>
+    <t>R23, R118, R129</t>
+  </si>
+  <si>
+    <t>R0603_1K5_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F1501TRF</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>R25, R26, R27, R28, R29, R30, R43, R44, R53</t>
+  </si>
+  <si>
+    <t>R0402_470R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>232270674701L</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R31, R36, R39</t>
+  </si>
+  <si>
+    <t>R0402_1K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>232270671002L</t>
+  </si>
+  <si>
+    <t>R33A, R33B, R33C, R33D</t>
+  </si>
+  <si>
+    <t>RESC2012X60N</t>
+  </si>
+  <si>
+    <t>R0805_NO-VALUE</t>
+  </si>
+  <si>
+    <t>Reserved Footprint For a 0805 (2012) Chip Resistor</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>R34, R37, R40A, R40B, R40C, R40D, R41A, R41B, R41C, R41D, R42, R60, R61, R62, R63, R69, R70, R71, R72, R76, R77, R95, R101, R102</t>
+  </si>
+  <si>
+    <t>R0402_200R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>232270672001L</t>
+  </si>
+  <si>
+    <t>49R9</t>
+  </si>
+  <si>
+    <t>R38A, R38B, R38C, R38D, R47, R52, R54A, R54B, R54C, R54D</t>
+  </si>
+  <si>
+    <t>R0402_49R9_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>232270674999L or RC0402FR-0749R9L</t>
+  </si>
+  <si>
+    <t>R66, R67, R83, R85, R86, R108, R110, R111</t>
   </si>
   <si>
     <t>R0402_10K_1%_0.0625W_100PPM</t>
@@ -888,103 +1104,205 @@
     <t>232270671003L</t>
   </si>
   <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>RESC1608X55N</t>
-  </si>
-  <si>
-    <t>R0603_100R_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>NIC COMPONENT</t>
+    <t>24k</t>
+  </si>
+  <si>
+    <t>R84, R?, R?</t>
+  </si>
+  <si>
+    <t>R0603_24K_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F2402TRF</t>
+  </si>
+  <si>
+    <t>1k8</t>
+  </si>
+  <si>
+    <t>R87</t>
+  </si>
+  <si>
+    <t>R0603_1K8_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F1801TRF</t>
+  </si>
+  <si>
+    <t>R90A, R90B, R90C, R90D</t>
+  </si>
+  <si>
+    <t>R0603_470R_1%_0.1W_100PPM</t>
   </si>
   <si>
     <t>NRC06F4700TRF</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>R37, R39, R40, R41</t>
-  </si>
-  <si>
-    <t>R0603_200R_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>NRC06F2000TRF</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>R64, R65, R74, R75</t>
-  </si>
-  <si>
-    <t>R0402_100K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>232270671004L</t>
-  </si>
-  <si>
-    <t>49k9</t>
-  </si>
-  <si>
-    <t>Resistor - 0.1%</t>
-  </si>
-  <si>
-    <t>R76</t>
-  </si>
-  <si>
-    <t>R0603_49K9_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>0.5mm</t>
-  </si>
-  <si>
-    <t>TYCO HOLSWORTHY</t>
-  </si>
-  <si>
-    <t>RN73C1J49K9BTDF</t>
-  </si>
-  <si>
-    <t>Thin Film Chip Resistor</t>
-  </si>
-  <si>
-    <t>Undefined</t>
-  </si>
-  <si>
-    <t>R80</t>
-  </si>
-  <si>
-    <t>R0603_NO-VALUE</t>
-  </si>
-  <si>
-    <t>Reserved Footprint For a 0603 (1608) Chip Resistor</t>
-  </si>
-  <si>
-    <t>270k</t>
-  </si>
-  <si>
-    <t>R89</t>
-  </si>
-  <si>
-    <t>R0603_270K_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>NRC06F2703TRF</t>
-  </si>
-  <si>
-    <t>82k</t>
-  </si>
-  <si>
-    <t>R90</t>
-  </si>
-  <si>
-    <t>R0603_82K_1%_0.1W_100PPM</t>
-  </si>
-  <si>
-    <t>NRC06F8202TRF</t>
+    <t>R103, R109</t>
+  </si>
+  <si>
+    <t>R0603_0R_JUMPER</t>
+  </si>
+  <si>
+    <t>NRC06Z0</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>R120, R121, R122</t>
+  </si>
+  <si>
+    <t>R0603_15K_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F1502TRF</t>
+  </si>
+  <si>
+    <t>6k8</t>
+  </si>
+  <si>
+    <t>R131</t>
+  </si>
+  <si>
+    <t>R0603_6K8_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F6801TRF</t>
+  </si>
+  <si>
+    <t>2k2</t>
+  </si>
+  <si>
+    <t>R132, R139</t>
+  </si>
+  <si>
+    <t>R0603_2K2_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F2201TRF</t>
+  </si>
+  <si>
+    <t>43k</t>
+  </si>
+  <si>
+    <t>R133</t>
+  </si>
+  <si>
+    <t>R0603_43K_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F4302TRF</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>R134</t>
+  </si>
+  <si>
+    <t>R0603_47K_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F4702TRF</t>
+  </si>
+  <si>
+    <t>9k1</t>
+  </si>
+  <si>
+    <t>R135</t>
+  </si>
+  <si>
+    <t>R0603_9K1_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F9101TRF</t>
+  </si>
+  <si>
+    <t>5k6</t>
+  </si>
+  <si>
+    <t>R136</t>
+  </si>
+  <si>
+    <t>R0603_5K6_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>NRC06F5601TRF</t>
+  </si>
+  <si>
+    <t>R137A, R137B, R137C, R137D</t>
+  </si>
+  <si>
+    <t>RESC3216X65N</t>
+  </si>
+  <si>
+    <t>VISHAY DRALORIC</t>
+  </si>
+  <si>
+    <t>CRCW1206100RFKEAHP</t>
+  </si>
+  <si>
+    <t>Pulse Proof, High Power Thick Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>R1206_100R_1%_0.5W_100PPM_VISHAY_CRCW-HP e3</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>4 Ways SPST DIP Switch</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW_OMRON_A6S-4102-H</t>
+  </si>
+  <si>
+    <t>OMRON</t>
+  </si>
+  <si>
+    <t>A6S-4102-H</t>
+  </si>
+  <si>
+    <t>4 Ways SPST DIP Switch, White Flat Actuator with Seal Tape, Contact Rating 25mA 24VDC</t>
+  </si>
+  <si>
+    <t>Test Point</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9</t>
+  </si>
+  <si>
+    <t>TPS127</t>
+  </si>
+  <si>
+    <t>1.27mm x 1.27mm PCB Copper Area (SMD Test Point)</t>
+  </si>
+  <si>
+    <t>SMD_PAD_1.27X1.27MM</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>75 Ohm 0.4 To 800MHz RF Transformers</t>
+  </si>
+  <si>
+    <t>TR1A, TR1B, TR1C, TR1D</t>
+  </si>
+  <si>
+    <t>XFMR_MINI-CIRCUITS_CD542</t>
+  </si>
+  <si>
+    <t>ADT1-1WT+</t>
+  </si>
+  <si>
+    <t>75 Ohms 0.4 to 800 MHz RF Transformer</t>
+  </si>
+  <si>
+    <t>XFMR_MINI-CIRCUITS_ADT1-1WT+</t>
   </si>
   <si>
     <t>1:2</t>
@@ -993,7 +1311,7 @@
     <t>50 OHMS 10 to 4000 MHz RF Transformer</t>
   </si>
   <si>
-    <t>TR1A, TR1B, TR1C, TR1D, TR2</t>
+    <t>TR2, TR3</t>
   </si>
   <si>
     <t>XFMR_MINI-CIRCUITS_DB1627</t>
@@ -1006,18 +1324,6 @@
   </si>
   <si>
     <t>XFMR_MINI-CIRCUITS_TCM2-43X+</t>
-  </si>
-  <si>
-    <t>AD9914BCPZ</t>
-  </si>
-  <si>
-    <t>3.5 GSPS Direct Digital Synthesizer, 12 Bits, -40 to 85 degC, 88-Pin LFCSP (CP-88-5), RoHS, Tray</t>
-  </si>
-  <si>
-    <t>U2A, U2B, U2C, U2D</t>
-  </si>
-  <si>
-    <t>ADI-CP-88-5_M</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1451,7 +1757,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="3">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1489,7 +1795,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="3">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1532,54 +1838,54 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -1588,13 +1894,13 @@
         <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>21</v>
@@ -1603,18 +1909,18 @@
         <v>42</v>
       </c>
       <c r="L6" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
@@ -1623,13 +1929,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>48</v>
@@ -1638,21 +1944,21 @@
         <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="3">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -1661,30 +1967,30 @@
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="3">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -1693,19 +1999,19 @@
         <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>57</v>
@@ -1714,387 +2020,387 @@
         <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L13" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L14" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L16" s="3">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="L18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="L19" s="3">
         <v>1</v>
@@ -2102,455 +2408,455 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="L20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="L21" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L22" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L23" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="L29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="L30" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L31" s="3">
         <v>1</v>
@@ -2558,75 +2864,75 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L32" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="L33" s="3">
         <v>1</v>
@@ -2634,37 +2940,37 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L34" s="3">
         <v>1</v>
@@ -2672,37 +2978,37 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L35" s="3">
         <v>4</v>
@@ -2710,37 +3016,37 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="L36" s="3">
         <v>1</v>
@@ -2748,37 +3054,37 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L37" s="3">
         <v>1</v>
@@ -2786,37 +3092,37 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="L38" s="3">
         <v>1</v>
@@ -2824,37 +3130,37 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L39" s="3">
         <v>1</v>
@@ -2862,113 +3168,113 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="L40" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L42" s="3">
         <v>5</v>
@@ -2976,189 +3282,189 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="L43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L44" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L45" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L46" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L47" s="3">
         <v>2</v>
@@ -3166,576 +3472,1298 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L48" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L49" s="3">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>273</v>
+        <v>63</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L50" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>277</v>
+        <v>63</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>278</v>
+        <v>63</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L51" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="L52" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>267</v>
+        <v>95</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="L53" s="3">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="L54" s="3">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="L55" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L56" s="3">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L57" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="L58" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="L59" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="L60" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>68</v>
+        <v>345</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="L61" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>68</v>
+        <v>349</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="L62" s="3">
         <v>4</v>
       </c>
     </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L63" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L64" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L65" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="L68" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L70" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L77" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L79" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="L80" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L81" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>